--- a/data/trans_bre/CONS_ANS-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANS-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,69 +470,69 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -608,407 +544,407 @@
       <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>9,29</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>15,79</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,96</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,88</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>104,41%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>142,12%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>99,82%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>89,06%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>8.013262969583538</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>15.78902662823602</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>8.470948459695968</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>6.354056415293872</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.8115936065581001</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1.421168923836272</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>2.083587787922542</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.9269993800466424</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>4,54; 13,65</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>6,13; 26,72</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 9,33</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,4; 9,14</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>35,81; 216,86</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>24,0; 363,63</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>28,62; 200,38</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>23,7; 176,26</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2.686685769230832</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>6.127411279193632</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>4.664768042910318</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.687618214841148</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.1835599487521531</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.2399926803888248</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.7744817165155307</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.2741215046475229</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.0466278385437</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>26.71897775891095</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>11.97058025271687</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>10.48005303641483</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.835631357055456</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>3.636264115722395</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>4.244043112222071</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>2.019982704640795</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,75</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,9</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,38</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>58,3%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>82,65%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>78,04%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>87,13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 4,5</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 8,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 5,8</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 4,68</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>14,83; 128,23</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>33,37; 160,67</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>33,48; 135,31</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>44,76; 137,67</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>3.264535596360962</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>5.746002636762737</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>4.282614121687084</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>3.65969821530753</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.7254026935435904</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.8265346404649045</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.8627979464723107</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.9410334000168045</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>1.390255075954526</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>2.83264460373158</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.17633154486567</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2.346229868203798</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.2425580970209999</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.3336638131722661</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.3564999943957666</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.5149302725353209</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>5.148176155637347</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>8.973750651855712</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>6.389814543733643</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>5.129419646556403</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.451451050195391</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.606736930055714</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.540524124358147</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.569105327561837</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,19</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>18,53%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>22,63%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>50,88%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-4,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 2,47</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 3,84</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 3,58</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,08; 1,43</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-42,6; 125,26</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-27,07; 100,1</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-22,62; 171,93</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-41,19; 49,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>0.09699337436836972</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1.205750948639118</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.53298553117522</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>-0.2676964829123281</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.03032412008449694</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.2262541227207573</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.5225305584116851</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.06460742509844415</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-1.982661078717047</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-1.75689128918418</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-0.6159336447526529</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>-2.364697626005675</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.4715120084733173</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.2706808555123285</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.208684182734198</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.4405000298147715</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>2.14237909396721</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>3.844105286733996</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>3.994100875037847</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>1.479734502898967</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.048436943359994</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.001021678957206</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.940923018122615</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.4942648088349073</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,84</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,61</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,61</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,84</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>81,26%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>79,97%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>78,96%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>67,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,48; 5,22</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,97; 8,0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 4,84</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 3,97</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>45,1; 126,51</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>34,21; 130,45</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>44,34; 122,72</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>39,24; 105,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>3.839544763567947</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>5.614046247952621</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>4.199718340720154</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>3.060058605864677</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.8062892159455294</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.799697770524105</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.9815827533349498</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.7132055887865559</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>2.251100087514201</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>2.968920295139074</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>2.729124386690553</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>1.995725657729381</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.4223611814094227</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.3421275004851041</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.5235250124682735</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.4141377105671343</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>5.255691540608465</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>8.00170043149137</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>5.647460220251141</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>4.276109102033359</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.27172970960217</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.304542822301426</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.527302864541496</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>1.183472442805779</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -1016,13 +952,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
